--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0876784-C432-4185-A4BC-6EBD97E99DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699BA0A7-90F3-4495-BBD0-A171CA940116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="313">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>We hadden afgesproken om het hele portfolio nu klaar te maken maar alleen ik en Jasper waren er.</t>
+  </si>
+  <si>
+    <t>Gesprek Portfolio</t>
   </si>
 </sst>
 </file>
@@ -1170,8 +1173,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D83" totalsRowShown="0">
-  <autoFilter ref="A9:D83" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D84" totalsRowShown="0">
+  <autoFilter ref="A9:D84" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1212,8 +1215,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D102" totalsRowShown="0">
-  <autoFilter ref="A9:D102" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D103" totalsRowShown="0">
+  <autoFilter ref="A9:D103" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1547,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D77"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1604,7 +1607,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C161)/60</f>
-        <v>109.08333333333333</v>
+        <v>110.08333333333333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1616,7 +1619,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C161)/60)</f>
-        <v>58.916666666666671</v>
+        <v>57.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2490,6 +2493,17 @@
       </c>
       <c r="C77">
         <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C78">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2554,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2608,7 +2622,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>120.41666666666667</v>
+        <v>121.41666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2620,7 +2634,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>47.583333333333329</v>
+        <v>46.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3579,7 +3593,15 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="15"/>
+      <c r="A84" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C84">
+        <v>60</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
       <c r="A85" s="16"/>
@@ -5015,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5069,7 +5091,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C177)/60</f>
-        <v>111.5</v>
+        <v>112.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5081,7 +5103,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C177)/60)</f>
-        <v>56.5</v>
+        <v>55.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5927,7 +5949,15 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="B72" s="3"/>
+      <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C72">
+        <v>60</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" s="3"/>
@@ -5998,10 +6028,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC102"/>
+  <dimension ref="A1:XFC103"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D102" sqref="A102:D102"/>
+      <selection activeCell="C103" sqref="A103:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6055,7 +6085,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -6067,7 +6097,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7283,6 +7313,17 @@
       </c>
       <c r="D102" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>312</v>
+      </c>
+      <c r="B103" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C103">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7303,6 +7344,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7528,26 +7588,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7565,30 +7632,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699BA0A7-90F3-4495-BBD0-A171CA940116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8378AB-4EDF-4CCD-AF7C-072784BEC07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="315">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -980,6 +980,12 @@
   </si>
   <si>
     <t>Gesprek Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezig geweest met zelfevaluatie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bezig geweest met zelfevaluatie en puntjes op de i voor mijn deel</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1179,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D84" totalsRowShown="0">
-  <autoFilter ref="A9:D84" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D86" totalsRowShown="0">
+  <autoFilter ref="A9:D86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1550,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -2568,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:C84"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2622,7 +2628,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>121.41666666666667</v>
+        <v>126.41666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2634,7 +2640,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>46.583333333333329</v>
+        <v>41.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3594,20 +3600,36 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>313</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44192</v>
+      </c>
+      <c r="C84">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>312</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B85" s="3">
         <v>44193</v>
       </c>
-      <c r="C84">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5">
-      <c r="A85" s="16"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="15"/>
+      <c r="C85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30">
+      <c r="A86" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="3">
+        <v>44194</v>
+      </c>
+      <c r="C86">
+        <v>180</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
       <c r="A87" s="16"/>
@@ -5037,7 +5059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:C72"/>
     </sheetView>
   </sheetViews>
@@ -6030,7 +6052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC103"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A76" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="C103" sqref="A103:C103"/>
     </sheetView>
   </sheetViews>
@@ -7344,25 +7366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7588,33 +7591,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7632,4 +7628,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdygadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699BA0A7-90F3-4495-BBD0-A171CA940116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCAAA2A-4D48-4039-8564-5285A5AB7BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="314">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -980,6 +980,9 @@
   </si>
   <si>
     <t>Gesprek Portfolio</t>
+  </si>
+  <si>
+    <t>Groepsevaluatie besproken</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D78" totalsRowShown="0">
-  <autoFilter ref="A9:D78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D79" totalsRowShown="0">
+  <autoFilter ref="A9:D79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -1173,8 +1176,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D84" totalsRowShown="0">
-  <autoFilter ref="A9:D84" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D85" totalsRowShown="0">
+  <autoFilter ref="A9:D85" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1186,8 +1189,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D107" totalsRowShown="0">
-  <autoFilter ref="A9:D107" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D108" totalsRowShown="0">
+  <autoFilter ref="A9:D108" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -1215,8 +1218,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D103" totalsRowShown="0">
-  <autoFilter ref="A9:D103" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D104" totalsRowShown="0">
+  <autoFilter ref="A9:D104" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1550,20 +1553,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView view="pageLayout" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1610,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C161)/60</f>
-        <v>110.08333333333333</v>
+        <v>112.08333333333333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1619,7 +1622,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C161)/60)</f>
-        <v>57.916666666666671</v>
+        <v>55.916666666666671</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2507,7 +2510,15 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="B79" s="3"/>
+      <c r="A79" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C79">
+        <v>120</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="3"/>
@@ -2569,19 +2580,19 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:C84"/>
+      <selection activeCell="A85" sqref="A85:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2633,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>121.41666666666667</v>
+        <v>123.41666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2634,7 +2645,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>46.583333333333329</v>
+        <v>44.583333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3603,31 +3614,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5">
-      <c r="A85" s="16"/>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C85">
+        <v>120</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="15"/>
     </row>
-    <row r="87" spans="1:4" ht="16.5">
+    <row r="87" spans="1:4" ht="16.8">
       <c r="A87" s="16"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="15"/>
     </row>
-    <row r="89" spans="1:4" ht="16.5">
+    <row r="89" spans="1:4" ht="16.8">
       <c r="A89" s="16"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="15"/>
     </row>
-    <row r="91" spans="1:4" ht="16.5">
+    <row r="91" spans="1:4" ht="16.8">
       <c r="A91" s="16"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="15"/>
     </row>
-    <row r="93" spans="1:4" ht="16.5">
+    <row r="93" spans="1:4" ht="16.8">
       <c r="A93" s="16"/>
     </row>
   </sheetData>
@@ -3648,23 +3667,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC107"/>
+  <dimension ref="A1:XFC108"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:D107"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="16383" width="9.109375" hidden="1"/>
+    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3705,7 +3724,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C162)/60</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3717,7 +3736,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C162)/60)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3828,7 +3847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3842,7 +3861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -4025,7 +4044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5015,6 +5034,17 @@
       </c>
       <c r="C107">
         <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C108">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5038,19 +5068,19 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:C72"/>
+      <selection activeCell="A73" sqref="A73:C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5091,7 +5121,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C177)/60</f>
-        <v>112.5</v>
+        <v>114.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5103,7 +5133,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C177)/60)</f>
-        <v>55.5</v>
+        <v>53.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5960,7 +5990,15 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="B73" s="3"/>
+      <c r="A73" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C73">
+        <v>120</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="3"/>
@@ -6028,23 +6066,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC103"/>
+  <dimension ref="A1:XFC104"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C103" sqref="A103:C103"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="25.8">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6085,7 +6123,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -6097,7 +6135,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7324,6 +7362,17 @@
       </c>
       <c r="C103">
         <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C104">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7344,25 +7393,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7588,33 +7618,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7632,4 +7655,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projects\nerdygadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCAAA2A-4D48-4039-8564-5285A5AB7BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03DF88E-4C91-4A63-929C-98E1C1815C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1680" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="324">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -983,6 +983,36 @@
   </si>
   <si>
     <t>Groepsevaluatie besproken</t>
+  </si>
+  <si>
+    <t>Feedback toegepast</t>
+  </si>
+  <si>
+    <t>Projectplan aangevuld</t>
+  </si>
+  <si>
+    <t>Zelfevaluatie en eindverslag</t>
+  </si>
+  <si>
+    <t>Eerst de zelfevaluatie ingevuld, daarna beign gemaakt aan het eindverslag</t>
+  </si>
+  <si>
+    <t>Eindverslag</t>
+  </si>
+  <si>
+    <t>verder gegaan met het eindverslag</t>
+  </si>
+  <si>
+    <t>Portfolio documenten en mappenstructuur aangemaakt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eindverslag gedeeltelijk opnieuw maken wegens wellicht foutieve manier van het maken </t>
+  </si>
+  <si>
+    <t>Eindverslag afronden</t>
+  </si>
+  <si>
+    <t>laatste koppen invullen en document nalopen.</t>
   </si>
 </sst>
 </file>
@@ -1142,9 +1172,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,7 +1261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1553,20 +1583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A55" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A79" sqref="A79:C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2579,20 +2609,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A85" sqref="A85:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3628,25 +3658,25 @@
     <row r="86" spans="1:4">
       <c r="A86" s="15"/>
     </row>
-    <row r="87" spans="1:4" ht="16.8">
+    <row r="87" spans="1:4" ht="16.5">
       <c r="A87" s="16"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="15"/>
     </row>
-    <row r="89" spans="1:4" ht="16.8">
+    <row r="89" spans="1:4" ht="16.5">
       <c r="A89" s="16"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="15"/>
     </row>
-    <row r="91" spans="1:4" ht="16.8">
+    <row r="91" spans="1:4" ht="16.5">
       <c r="A91" s="16"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="15"/>
     </row>
-    <row r="93" spans="1:4" ht="16.8">
+    <row r="93" spans="1:4" ht="16.5">
       <c r="A93" s="16"/>
     </row>
   </sheetData>
@@ -3669,21 +3699,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC108"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A85" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="A108" sqref="A108:C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="16383" width="9.109375" hidden="1"/>
-    <col min="16384" max="16384" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3847,7 +3877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3861,7 +3891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -4044,7 +4074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5067,20 +5097,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:C73"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5151,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C177)/60</f>
-        <v>114.5</v>
+        <v>123.66666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5133,7 +5163,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C177)/60)</f>
-        <v>53.5</v>
+        <v>44.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5975,43 +6005,120 @@
         <v>44187</v>
       </c>
       <c r="C71">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B72" s="3">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B73" s="3">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="C73">
         <v>120</v>
       </c>
+      <c r="D73" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="B74" s="3"/>
+      <c r="A74" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44189</v>
+      </c>
+      <c r="C74">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44192</v>
+      </c>
+      <c r="C75">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="B76" s="3"/>
+      <c r="A76" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C76">
+        <v>60</v>
+      </c>
+      <c r="D76" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5"/>
-      <c r="B77" s="3"/>
+      <c r="A77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C77">
+        <v>120</v>
+      </c>
+      <c r="D77" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="B78" s="3"/>
+      <c r="A78" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C78">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>322</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="3"/>
@@ -6068,21 +6175,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC104"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="16383" width="0" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="7.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -7393,6 +7500,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7618,26 +7744,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7655,30 +7788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8378AB-4EDF-4CCD-AF7C-072784BEC07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DDFD21-DE21-42C6-A0CE-DB4457154844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="317">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -986,6 +986,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Bezig geweest met zelfevaluatie en puntjes op de i voor mijn deel</t>
+  </si>
+  <si>
+    <t>Eindevaluatie documenten</t>
+  </si>
+  <si>
+    <t>Alle gezamenlijke documenten van het project zijn nagekeken, inlevermoment is gesteld</t>
   </si>
 </sst>
 </file>
@@ -1145,9 +1151,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,8 +1169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D78" totalsRowShown="0">
-  <autoFilter ref="A9:D78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D79" totalsRowShown="0">
+  <autoFilter ref="A9:D79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -1234,7 +1240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1556,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1613,7 +1619,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C161)/60</f>
-        <v>110.08333333333333</v>
+        <v>112.25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1625,7 +1631,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C161)/60)</f>
-        <v>57.916666666666671</v>
+        <v>55.75</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2513,7 +2519,18 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="B79" s="3"/>
+      <c r="A79" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C79">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="3"/>
@@ -2574,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A76" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
@@ -7366,6 +7383,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7591,26 +7627,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7628,30 +7671,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DDFD21-DE21-42C6-A0CE-DB4457154844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA79D86E-7BE8-42A4-BBD6-E0F45B1D0CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="318">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>Alle gezamenlijke documenten van het project zijn nagekeken, inlevermoment is gesteld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laatste dingen aangepast aan eindevaluatie </t>
   </si>
 </sst>
 </file>
@@ -1151,9 +1154,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,8 +1188,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D86" totalsRowShown="0">
-  <autoFilter ref="A9:D86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D88" totalsRowShown="0">
+  <autoFilter ref="A9:D88" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1198,8 +1201,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D107" totalsRowShown="0">
-  <autoFilter ref="A9:D107" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D108" totalsRowShown="0">
+  <autoFilter ref="A9:D108" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D67">
     <sortCondition ref="B9:B67"/>
   </sortState>
@@ -1227,8 +1230,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D103" totalsRowShown="0">
-  <autoFilter ref="A9:D103" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D104" totalsRowShown="0">
+  <autoFilter ref="A9:D104" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1240,7 +1243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1562,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D79" sqref="A79:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2591,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2645,7 +2648,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>126.41666666666667</v>
+        <v>130.08333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2657,7 +2660,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>41.583333333333329</v>
+        <v>37.916666666666657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3648,11 +3651,30 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5">
-      <c r="A87" s="16"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="15"/>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C87">
+        <v>130</v>
+      </c>
+      <c r="D87" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30">
+      <c r="A88" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="3">
+        <v>43833</v>
+      </c>
+      <c r="C88">
+        <v>90</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
       <c r="A89" s="16"/>
@@ -3687,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:XFC107"/>
+  <dimension ref="A1:XFC108"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:D107"/>
+      <selection activeCell="A108" sqref="A108:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3744,7 +3766,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C162)/60</f>
-        <v>149</v>
+        <v>151.16666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3756,7 +3778,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C162)/60)</f>
-        <v>19</v>
+        <v>16.833333333333343</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5054,6 +5076,20 @@
       </c>
       <c r="C107">
         <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C108">
+        <v>130</v>
+      </c>
+      <c r="D108" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5077,7 +5113,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:C72"/>
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5130,7 +5166,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C177)/60</f>
-        <v>112.5</v>
+        <v>114.66666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5142,7 +5178,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C177)/60)</f>
-        <v>55.5</v>
+        <v>53.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5999,7 +6035,18 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="B73" s="3"/>
+      <c r="A73" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C73">
+        <v>130</v>
+      </c>
+      <c r="D73" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="3"/>
@@ -6067,10 +6114,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC103"/>
+  <dimension ref="A1:XFC104"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C103" sqref="A103:C103"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6124,7 +6171,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>141</v>
+        <v>143.16666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -6136,7 +6183,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>27</v>
+        <v>24.833333333333343</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7363,6 +7410,20 @@
       </c>
       <c r="C103">
         <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>315</v>
+      </c>
+      <c r="B104" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C104">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7383,25 +7444,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7627,33 +7669,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7671,4 +7706,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA79D86E-7BE8-42A4-BBD6-E0F45B1D0CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BED143-5031-421C-8C79-1F1A0CC278E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="322">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -995,6 +995,18 @@
   </si>
   <si>
     <t xml:space="preserve">Laatste dingen aangepast aan eindevaluatie </t>
+  </si>
+  <si>
+    <t>Eindverslag</t>
+  </si>
+  <si>
+    <t>Technisch Ontwerp</t>
+  </si>
+  <si>
+    <t>Zelfevaluatie ingevuld</t>
+  </si>
+  <si>
+    <t>Begin eindverslag</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1166,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1172,8 +1184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D79" totalsRowShown="0">
-  <autoFilter ref="A9:D79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D85" totalsRowShown="0">
+  <autoFilter ref="A9:D85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -1243,7 +1255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1565,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D79" sqref="A79:D79"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1622,7 +1634,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C161)/60</f>
-        <v>112.25</v>
+        <v>131.08333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1634,7 +1646,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C161)/60)</f>
-        <v>55.75</v>
+        <v>36.916666666666657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2512,66 +2524,114 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="B78" s="3">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44192</v>
+      </c>
+      <c r="C79">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44192</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>312</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44194</v>
+      </c>
+      <c r="C82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B83" s="3">
         <v>44198</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>130</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D83" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>318</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C84">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C85">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:4">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:4">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:4">
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:4">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:4">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:4">
       <c r="B92" s="3"/>
     </row>
   </sheetData>
@@ -6116,7 +6176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A104" sqref="A104:D104"/>
     </sheetView>
   </sheetViews>
@@ -7444,6 +7504,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7669,26 +7748,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7706,30 +7792,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anastasia\XAMPP\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BED143-5031-421C-8C79-1F1A0CC278E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB217B8E-00E7-4AAC-AFE6-4A86290AB199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23415" yWindow="870" windowWidth="14985" windowHeight="20130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="331">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -1007,13 +1007,40 @@
   </si>
   <si>
     <t>Begin eindverslag</t>
+  </si>
+  <si>
+    <t>Projectplan aangevuld</t>
+  </si>
+  <si>
+    <t>Feedback toegepast</t>
+  </si>
+  <si>
+    <t>Zelfevaluatie en eindverslag</t>
+  </si>
+  <si>
+    <t>Eerst de zelfevaluatie ingevuld, daarna begin gemaakt verslag.</t>
+  </si>
+  <si>
+    <t>verder gegaan met het eindverslag.</t>
+  </si>
+  <si>
+    <t>Portfolio, documenten en mappenstructuur aangemaakt</t>
+  </si>
+  <si>
+    <t>Eindverslag gedeeltelijk opnieuw gemaakt na de feedback van mijn groepsgenoten.</t>
+  </si>
+  <si>
+    <t>Eindverslag afgerond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eindverslag </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +1093,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1128,7 +1161,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1164,6 +1197,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1577,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView view="pageLayout" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2654,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -5172,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D73"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5226,7 +5261,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C177)/60</f>
-        <v>114.66666666666667</v>
+        <v>131.33333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5238,7 +5273,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C177)/60)</f>
-        <v>53.333333333333329</v>
+        <v>36.666666666666657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5322,7 +5357,7 @@
         <v>44105</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5442,7 +5477,7 @@
         <v>44136</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6080,49 +6115,137 @@
         <v>44187</v>
       </c>
       <c r="C71">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B72" s="3">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44188</v>
+      </c>
+      <c r="C73">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44189</v>
+      </c>
+      <c r="C74">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44192</v>
+      </c>
+      <c r="C75">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44193</v>
+      </c>
+      <c r="C76">
+        <v>60</v>
+      </c>
+      <c r="D76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44194</v>
+      </c>
+      <c r="C77">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>315</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B78" s="3">
         <v>44198</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>130</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D78" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="B78" s="3"/>
+    <row r="79" spans="1:4">
+      <c r="A79" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C79">
+        <v>180</v>
+      </c>
+      <c r="D79" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="B80" s="3"/>
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C80">
+        <v>210</v>
+      </c>
+      <c r="D80" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" s="3"/>
@@ -7504,25 +7627,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7748,33 +7852,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7792,4 +7889,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
+++ b/NerdyGadgets ICTM1n4 - Portfolio/10 - Projectdocumentatie/NerdyGadgets ICTM1n4 - Tijdschriftformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets-master\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\NerdyGadgets\NerdyGadgets ICTM1n4 - Portfolio\10 - Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB217B8E-00E7-4AAC-AFE6-4A86290AB199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3099F-C9F2-4C1A-8F52-1C4357D1504B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23415" yWindow="870" windowWidth="14985" windowHeight="20130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 - Anastasia" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="334">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -1034,6 +1034,15 @@
   </si>
   <si>
     <t xml:space="preserve">Eindverslag </t>
+  </si>
+  <si>
+    <t>Stand van zaken bespreken met de groep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einde KBS </t>
+  </si>
+  <si>
+    <t>Alles ingeleverd</t>
   </si>
 </sst>
 </file>
@@ -1191,19 +1200,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1219,8 +1228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D85" totalsRowShown="0">
-  <autoFilter ref="A9:D85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D87" totalsRowShown="0">
+  <autoFilter ref="A9:D87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D45">
     <sortCondition ref="B9:B45"/>
   </sortState>
@@ -1235,8 +1244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D88" totalsRowShown="0">
-  <autoFilter ref="A9:D88" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D90" totalsRowShown="0">
+  <autoFilter ref="A9:D90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
@@ -1277,8 +1286,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D104" totalsRowShown="0">
-  <autoFilter ref="A9:D104" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D106" totalsRowShown="0">
+  <autoFilter ref="A9:D106" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1290,7 +1299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1610,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView view="pageLayout" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1626,12 +1635,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1668,8 +1677,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C161)/60</f>
-        <v>131.08333333333334</v>
+        <f>SUM(C10:C162)/60</f>
+        <v>132.58333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1680,8 +1689,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C161)/60)</f>
-        <v>36.916666666666657</v>
+        <f>(2*3*28)-(SUM(C10:C162)/60)</f>
+        <v>35.416666666666657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2614,27 +2623,27 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B83" s="3">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C83">
-        <v>130</v>
-      </c>
-      <c r="D83" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B84" s="3">
         <v>44198</v>
       </c>
       <c r="C84">
-        <v>300</v>
+        <v>130</v>
+      </c>
+      <c r="D84" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2642,17 +2651,36 @@
         <v>318</v>
       </c>
       <c r="B85" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C85">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="3">
         <v>44199</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="B86" s="3"/>
-    </row>
     <row r="87" spans="1:4">
-      <c r="B87" s="3"/>
+      <c r="A87" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="B88" s="3"/>
@@ -2668,6 +2696,9 @@
     </row>
     <row r="92" spans="1:4">
       <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2687,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView view="pageLayout" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2703,12 +2734,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -2742,8 +2773,8 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>130.08333333333334</v>
+        <f>SUM(C10:C153)/60</f>
+        <v>131.58333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2754,8 +2785,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>37.916666666666657</v>
+        <f>(2*3*28)-(SUM(C10:C153)/60)</f>
+        <v>36.416666666666657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3748,43 +3779,65 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>331</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>315</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>44198</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>130</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30">
-      <c r="A88" s="15" t="s">
+    <row r="89" spans="1:4" ht="30">
+      <c r="A89" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B89" s="3">
         <v>43833</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5">
-      <c r="A89" s="16"/>
-    </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="15"/>
-    </row>
-    <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="16"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="15"/>
-    </row>
-    <row r="93" spans="1:4" ht="16.5">
-      <c r="A93" s="16"/>
+      <c r="A90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92" spans="1:4" ht="16.5">
+      <c r="A92" s="16"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94" spans="1:4" ht="16.5">
+      <c r="A94" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3806,8 +3859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFC108"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:D108"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3821,12 +3874,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -5207,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5221,12 +5274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -5261,7 +5314,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C177)/60</f>
-        <v>131.33333333333334</v>
+        <v>132.83333333333334</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5273,7 +5326,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C177)/60)</f>
-        <v>36.666666666666657</v>
+        <v>35.166666666666657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -6164,7 +6217,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="17" t="s">
         <v>318</v>
       </c>
       <c r="B75" s="3">
@@ -6207,75 +6260,94 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>315</v>
-      </c>
-      <c r="B78" s="3">
-        <v>44198</v>
-      </c>
-      <c r="C78">
-        <v>130</v>
-      </c>
-      <c r="D78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="B79" s="3">
         <v>44198</v>
       </c>
       <c r="C79">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44198</v>
+      </c>
+      <c r="C80">
         <v>180</v>
-      </c>
-      <c r="D79" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80" s="3">
-        <v>44199</v>
-      </c>
-      <c r="C80">
-        <v>210</v>
       </c>
       <c r="D80" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C81">
+        <v>210</v>
+      </c>
+      <c r="D81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:4">
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:4">
       <c r="B85" s="3"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:4">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:4">
       <c r="A88" s="5"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:4">
       <c r="B89" s="3"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:4">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:4">
       <c r="B92" s="3"/>
     </row>
   </sheetData>
@@ -6297,10 +6369,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:XFC104"/>
+  <dimension ref="A1:XFC106"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:D104"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6314,12 +6386,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -6354,7 +6426,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C186)/60</f>
-        <v>143.16666666666666</v>
+        <v>144.66666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -6366,7 +6438,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C153)/60)</f>
-        <v>24.833333333333343</v>
+        <v>23.333333333333343</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7597,16 +7669,41 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
+        <v>331</v>
+      </c>
+      <c r="B104" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
         <v>315</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B105" s="3">
         <v>44198</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>130</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>332</v>
+      </c>
+      <c r="B106" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7627,6 +7724,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7852,26 +7968,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7889,30 +8012,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>